--- a/templates/QARSF/SOAPI.xlsx
+++ b/templates/QARSF/SOAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Automation_1Updated\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623A884-EFC1-49E0-8354-B58A867063B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590D2C1-ACCF-4AA3-B99A-8E8CA5584888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{4577C28F-78BB-496A-9D91-BBA99229E5AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="807" activeTab="7" xr2:uid="{4577C28F-78BB-496A-9D91-BBA99229E5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Header" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
     <t>a5B41000000PRNXEA4</t>
   </si>
   <si>
-    <t>a2W41000002EnWG</t>
+    <t>a2W41000002EnWL</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2912C-F36A-4ECF-8EDC-A40A837A9A1D}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01441D4A-905D-429D-878C-59DD43158E54}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FC22D3-7105-47EB-9F93-CBB5CCC1A1D8}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
